--- a/db/clique_connect_database.xlsx
+++ b/db/clique_connect_database.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clabesse/Sites/lewagon/clique-connect/db/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28680" windowHeight="16420" tabRatio="990" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Businesses" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Clicks" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Suggestions" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Businesses" sheetId="1" r:id="rId1"/>
+    <sheet name="Clicks" sheetId="2" r:id="rId2"/>
+    <sheet name="Suggestions" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -22,42 +29,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="89">
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">industry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desired_skills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acquired_skills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">competitors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desired_partnerships</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acquired_partnerships</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tinder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dating
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>desired_skills</t>
+  </si>
+  <si>
+    <t>acquired_skills</t>
+  </si>
+  <si>
+    <t>competitors</t>
+  </si>
+  <si>
+    <t>desired_partnerships</t>
+  </si>
+  <si>
+    <t>acquired_partnerships</t>
+  </si>
+  <si>
+    <t>Tinder</t>
+  </si>
+  <si>
+    <t>Dating
 Mobile
 Search Engine
 Social Media</t>
   </si>
   <si>
-    <t xml:space="preserve">51 to 100</t>
+    <t>51 to 100</t>
   </si>
   <si>
     <t xml:space="preserve">Event Partnerships
@@ -66,7 +73,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Dating
+    <t>Dating
 Matchmaking
 Swiping
 Cheating
@@ -91,23 +98,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Hoyts Group
+    <t>Hoyts Group
 Event Cinemas
 Deliveroo</t>
   </si>
   <si>
-    <t xml:space="preserve">Mad Paws</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internet
+    <t>Mad Paws</t>
+  </si>
+  <si>
+    <t>Internet
 Marketplace
 Pet</t>
   </si>
   <si>
-    <t xml:space="preserve">11 to 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dogs
+    <t>11 to 50</t>
+  </si>
+  <si>
+    <t>Dogs
 Dog Walkers
 Everyday People
 Cats
@@ -117,15 +124,15 @@
 Pet</t>
   </si>
   <si>
-    <t xml:space="preserve">TaskRabbit
+    <t>TaskRabbit
 AirTasker</t>
   </si>
   <si>
-    <t xml:space="preserve">Clique Labs
+    <t>Clique Labs
 Tribe</t>
   </si>
   <si>
-    <t xml:space="preserve">Tinder
+    <t>Tinder
 Happn
 Deliveroo</t>
   </si>
@@ -133,15 +140,15 @@
     <t xml:space="preserve">Event Cinemas </t>
   </si>
   <si>
-    <t xml:space="preserve">Cinema
+    <t>Cinema
 Entertainment
 Nightlife</t>
   </si>
   <si>
-    <t xml:space="preserve">501 to 1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cinema
+    <t>501 to 1000</t>
+  </si>
+  <si>
+    <t>Cinema
 Lifestyle
 Nightlife
 Dating
@@ -155,16 +162,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Tinder
+    <t>Tinder
 Happn
 Bumble
 Glamcorner</t>
   </si>
   <si>
-    <t xml:space="preserve">Hoyts Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cinema
+    <t>Hoyts Group</t>
+  </si>
+  <si>
+    <t>Cinema
 Lifestyle
 Nightlife
 Dating
@@ -177,21 +184,21 @@
 Social Media</t>
   </si>
   <si>
-    <t xml:space="preserve">Event Cinemas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recomazing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Communities
+    <t>Event Cinemas</t>
+  </si>
+  <si>
+    <t>Recomazing</t>
+  </si>
+  <si>
+    <t>Communities
 Internet
 Social Media</t>
   </si>
   <si>
-    <t xml:space="preserve">1 to 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Reccomendations
+    <t>1 to 10</t>
+  </si>
+  <si>
+    <t>Product Reccomendations
 Social Media
 Influencers
 Technology
@@ -201,17 +208,17 @@
 Tech</t>
   </si>
   <si>
-    <t xml:space="preserve">ProductHunt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tribe
+    <t>ProductHunt</t>
+  </si>
+  <si>
+    <t>Tribe
 Clique Labs</t>
   </si>
   <si>
-    <t xml:space="preserve">Airtasker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apps
+    <t>Airtasker</t>
+  </si>
+  <si>
+    <t>Apps
 E-Commerce
 Internet
 Mobile
@@ -232,20 +239,20 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">TaskRabbit
+    <t>TaskRabbit
 Design Crowd</t>
   </si>
   <si>
-    <t xml:space="preserve">Tribe
+    <t>Tribe
 Clique Labs
 Gather Online
 Event Cinemas</t>
   </si>
   <si>
-    <t xml:space="preserve">Gather Online</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information Technology
+    <t>Gather Online</t>
+  </si>
+  <si>
+    <t>Information Technology
 Social
 Social Network</t>
   </si>
@@ -264,17 +271,17 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Event Cinemas
+    <t>Event Cinemas
 Hoyts
 Tinder
 Happn
 Bumble</t>
   </si>
   <si>
-    <t xml:space="preserve">Glamcorner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-Commerce
+    <t>Glamcorner</t>
+  </si>
+  <si>
+    <t>E-Commerce
 Fashion
 Information Technology
 Internet
@@ -282,7 +289,7 @@
 Sharing Economy</t>
   </si>
   <si>
-    <t xml:space="preserve">Fashion
+    <t>Fashion
 E-Commerce
 Dresses
 Glamourous
@@ -293,13 +300,13 @@
 Sharing Economy</t>
   </si>
   <si>
-    <t xml:space="preserve">DesignerEx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clique Labs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Influencer
+    <t>DesignerEx</t>
+  </si>
+  <si>
+    <t>Clique Labs</t>
+  </si>
+  <si>
+    <t>Influencer
 Information Technology
 E-Commerce
 Social
@@ -308,7 +315,7 @@
 Enterprise Software</t>
   </si>
   <si>
-    <t xml:space="preserve">Instagram
+    <t>Instagram
 Models
 Everyday People
 Creative Marketplace
@@ -321,33 +328,33 @@
 Enterprise Software</t>
   </si>
   <si>
-    <t xml:space="preserve">Tribe
+    <t>Tribe
 Visual Amplifiers</t>
   </si>
   <si>
-    <t xml:space="preserve">Tribe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clique Labs
+    <t>Tribe</t>
+  </si>
+  <si>
+    <t>Clique Labs
 Visual Amplifiers</t>
   </si>
   <si>
     <t xml:space="preserve">Visual Amplifiers </t>
   </si>
   <si>
-    <t xml:space="preserve">Deliveroo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delivery
+    <t>Deliveroo</t>
+  </si>
+  <si>
+    <t>Delivery
 Food and Beverage
 Restaurants
 Same Day Delivery</t>
   </si>
   <si>
-    <t xml:space="preserve">101 to 250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Late Night
+    <t>101 to 250</t>
+  </si>
+  <si>
+    <t>Late Night
 Dine-In
 Date Night
 Delivery
@@ -360,15 +367,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Tinder
+    <t>Tinder
 Happn
 Bumble</t>
   </si>
   <si>
-    <t xml:space="preserve">Uber Eats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apps
+    <t>Uber Eats</t>
+  </si>
+  <si>
+    <t>Apps
 Food Delivery
 Mobile Apps
 Delivery
@@ -377,23 +384,23 @@
 Same Day Delivery</t>
   </si>
   <si>
-    <t xml:space="preserve">1001 to 5000</t>
+    <t>1001 to 5000</t>
   </si>
   <si>
     <t xml:space="preserve">Deliveroo
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Happn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apps
+    <t>Happn</t>
+  </si>
+  <si>
+    <t>Apps
 Dating
 Internet
 Mobile</t>
   </si>
   <si>
-    <t xml:space="preserve">Dating
+    <t>Dating
 Matchmaking
 Cheating
 Restaurants
@@ -404,25 +411,25 @@
 Social Media</t>
   </si>
   <si>
-    <t xml:space="preserve">Tinder
+    <t>Tinder
 Bumble</t>
   </si>
   <si>
-    <t xml:space="preserve">Bumble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apps
+    <t>Bumble</t>
+  </si>
+  <si>
+    <t>Apps
 Dating
 Mobile Apps
 Social Media
 Social Network</t>
   </si>
   <si>
-    <t xml:space="preserve">Tinder
+    <t>Tinder
 Happn</t>
   </si>
   <si>
-    <t xml:space="preserve">Communities
+    <t>Communities
 Mobile
 Product Management
 Ranking
@@ -431,17 +438,17 @@
 Technology</t>
   </si>
   <si>
-    <t xml:space="preserve">TaskRabbit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Airtasker
+    <t>TaskRabbit</t>
+  </si>
+  <si>
+    <t>Airtasker
 Mad Paws</t>
   </si>
   <si>
-    <t xml:space="preserve">DesignCrowd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apps
+    <t>DesignCrowd</t>
+  </si>
+  <si>
+    <t>Apps
 E-Commerce
 Internet
 Mobile
@@ -450,7 +457,7 @@
 Tasks on Demand</t>
   </si>
   <si>
-    <t xml:space="preserve">Apps
+    <t>Apps
 E-Commerce
 Internet
 Mobile
@@ -461,40 +468,50 @@
 Crowdsourced</t>
   </si>
   <si>
-    <t xml:space="preserve">clicker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clicked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pepsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">business</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlassian</t>
+    <t>clicker</t>
+  </si>
+  <si>
+    <t>clicked</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>Coca-Cola Company</t>
+  </si>
+  <si>
+    <t>Pepsi</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>Event Cinema</t>
+  </si>
+  <si>
+    <t>Insitchu</t>
+  </si>
+  <si>
+    <t>The Iconic</t>
+  </si>
+  <si>
+    <t>Coles</t>
+  </si>
+  <si>
+    <t>Canva</t>
+  </si>
+  <si>
+    <t>Mastercard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="MMM\-YY"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -503,22 +520,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -535,7 +537,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -543,93 +545,315 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView zoomScale="138" zoomScaleNormal="65" zoomScalePageLayoutView="65" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5037037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.42592592592593"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.2703703703704"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.937037037037"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.7407407407407"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.9925925925926"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.0703703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.52592592592593"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,7 +879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="143.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -681,7 +905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -707,14 +931,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -730,14 +954,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="157.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" ht="192" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -746,21 +970,21 @@
       <c r="E5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="143.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -769,21 +993,21 @@
       <c r="E6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="171.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -799,14 +1023,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="185.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -819,14 +1043,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="171.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" ht="192" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -839,14 +1063,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="228.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" ht="256" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -859,14 +1083,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="228.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" ht="256" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -879,14 +1103,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="228.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" ht="256" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -899,14 +1123,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="129.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>60</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -922,14 +1146,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="185.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>66</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -942,14 +1166,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="129.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -962,14 +1186,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="143.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -982,14 +1206,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="171.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="192" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>34</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -998,18 +1222,18 @@
       <c r="E17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="240" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1022,14 +1246,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="171.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="208" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -1042,14 +1266,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="171.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="192" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -1063,140 +1287,162 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="65" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1296296296296"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.9740740740741"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="65" zoomScalePageLayoutView="65" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.9740740740741"/>
+    <col min="1" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="n">
+      <c r="C1">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="n">
+      <c r="D1">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="n">
+      <c r="E1">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="n">
+      <c r="F1">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="n">
+      <c r="G1">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="n">
+      <c r="H1">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="n">
+      <c r="I1">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="n">
+      <c r="J1">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="n">
+      <c r="K1">
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
         <v>88</v>
       </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/db/clique_connect_database.xlsx
+++ b/db/clique_connect_database.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -63,6 +63,7 @@
     <t xml:space="preserve">Event Partnerships
 PR
 Cross Promotion Opportunities
+Dogs
 </t>
   </si>
   <si>
@@ -106,6 +107,12 @@
   </si>
   <si>
     <t xml:space="preserve">11 to 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Partnerships
+PR
+Cross Promotion Opportunities
+</t>
   </si>
   <si>
     <t xml:space="preserve">Dogs
@@ -626,20 +633,20 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8740740740741"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4444444444444"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.937037037037"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.0148148148148"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6222222222222"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.6962962962963"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.7740740740741"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2296296296296"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.3074074074074"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9148148148148"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.1851851851852"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.262962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -668,7 +675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="143.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="143.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -705,374 +712,374 @@
         <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="192" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="160" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="208" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="208" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="192" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="256" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="256" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="256" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="208" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="160" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="192" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="F17" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="208" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="192" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1099,26 +1106,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>5</v>
@@ -1126,10 +1133,10 @@
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>9</v>
@@ -1159,13 +1166,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="11" min="1" style="0" width="15.3851851851852"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="11" min="1" style="0" width="15.7777777777778"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>1</v>
@@ -1206,48 +1213,48 @@
         <v>16</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
